--- a/data/data_timefreq_gamma.xlsx
+++ b/data/data_timefreq_gamma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Basia/Dropbox/REMEMBER_analyses/rsos/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEA4971-320A-634A-8FC6-D2CA15D89EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F9FC29-8C1C-834F-A5E9-CAE535823C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26980" yWindow="460" windowWidth="29460" windowHeight="20860" activeTab="4" xr2:uid="{FD8B58C2-6410-EA4C-8C82-7086799A3251}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="E1_unfamiliar" sheetId="10" r:id="rId2"/>
     <sheet name="E2_familiar" sheetId="5" r:id="rId3"/>
     <sheet name="E2_unfamiliar" sheetId="2" r:id="rId4"/>
-    <sheet name="gamma" sheetId="4" r:id="rId5"/>
+    <sheet name="summary" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -536,7 +536,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -660,7 +660,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/data/data_timefreq_gamma.xlsx
+++ b/data/data_timefreq_gamma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Basia/Dropbox/REMEMBER_analyses/rsos/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Basia/Documents/GitHub/remember/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F9FC29-8C1C-834F-A5E9-CAE535823C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD890E23-0105-B44A-9489-C34900CC6AB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26980" yWindow="460" windowWidth="29460" windowHeight="20860" activeTab="4" xr2:uid="{FD8B58C2-6410-EA4C-8C82-7086799A3251}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{FD8B58C2-6410-EA4C-8C82-7086799A3251}"/>
   </bookViews>
   <sheets>
     <sheet name="E1_familiar" sheetId="8" r:id="rId1"/>
